--- a/bin/config/Controller.xlsx
+++ b/bin/config/Controller.xlsx
@@ -1286,8 +1286,8 @@
   </sheetPr>
   <dimension ref="A1:J7"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="I11" activeCellId="0" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -1359,7 +1359,7 @@
         <v>25</v>
       </c>
       <c r="I2" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J2" s="7"/>
     </row>
@@ -1389,7 +1389,7 @@
         <v>25</v>
       </c>
       <c r="I3" s="11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="2" t="s">
         <v>53</v>

--- a/bin/config/Controller.xlsx
+++ b/bin/config/Controller.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="13545" windowHeight="5355" tabRatio="1000"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="13380" windowHeight="6345" tabRatio="1000"/>
   </bookViews>
   <sheets>
     <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
@@ -12,14 +12,19 @@
     <sheet name="DashboardLinkTest" sheetId="7" r:id="rId3"/>
     <sheet name="OperationalView_ReportViewTest" sheetId="5" r:id="rId4"/>
     <sheet name="OperationalView_ProjectViewTest" sheetId="11" r:id="rId5"/>
+    <sheet name="PlannedOutagePageTest" sheetId="12" r:id="rId6"/>
+    <sheet name="ProjectOverviewPageTest" sheetId="13" r:id="rId7"/>
+    <sheet name="ContractManagementPageTest" sheetId="14" r:id="rId8"/>
+    <sheet name="SubscribeAlertReportTest" sheetId="15" r:id="rId9"/>
+    <sheet name="PurchaseNewInventoryTest" sheetId="16" r:id="rId10"/>
   </sheets>
-  <calcPr calcId="0"/>
-  <oleSize ref="A1:H16"/>
+  <calcPr calcId="144525" iterateDelta="1E-4"/>
+  <oleSize ref="A1:H19"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="81">
   <si>
     <t>TCID</t>
   </si>
@@ -33,122 +38,245 @@
     <t>LoginTest</t>
   </si>
   <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>testType</t>
+  </si>
+  <si>
+    <t>Feature</t>
+  </si>
+  <si>
+    <t>Use_Case</t>
+  </si>
+  <si>
+    <t>Test_Case</t>
+  </si>
+  <si>
+    <t>Application</t>
+  </si>
+  <si>
+    <t>SrNo</t>
+  </si>
+  <si>
+    <t>Provider</t>
+  </si>
+  <si>
+    <t>Enter Wrong UserName and Right Password.</t>
+  </si>
+  <si>
+    <t>Enter Right UserName and Wrong Password.</t>
+  </si>
+  <si>
+    <t>Enter Wrong UserName and Wrong Password.</t>
+  </si>
+  <si>
+    <t>Enter Right UserName and Right Password.</t>
+  </si>
+  <si>
+    <t>sumit</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>renewable</t>
+  </si>
+  <si>
+    <t>fdfdfdf</t>
+  </si>
+  <si>
+    <t>DashboardLinkTest</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> open</t>
+  </si>
+  <si>
+    <t>OperationalView_ProjectViewTest</t>
+  </si>
+  <si>
+    <t>OperationalView_ReportViewTest</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>Links are working or not</t>
+  </si>
+  <si>
+    <t>Clicked on Download Equipment Data.Component Data page will open.do not click on select component and click on View report.Should not go to next page.</t>
+  </si>
+  <si>
+    <t>Clicked on Download Equipment Data.Component Data page will open.clicking on select component then clicking on View Report.Should go to the next page.</t>
+  </si>
+  <si>
+    <t>Clicking on Download Equipment Data link, Component Data page should be open</t>
+  </si>
+  <si>
+    <t>Clicking on EquipmentLevelSummary link.Component Level Summary page should be open.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clicked on Equipment Level Summary,Component Level Summary page will open.clicking on Download Equipment </t>
+  </si>
+  <si>
+    <t>OperationalView_ProjectView</t>
+  </si>
+  <si>
+    <t>OperationalView_ReportView</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>St_date</t>
+  </si>
+  <si>
+    <t>End_date</t>
+  </si>
+  <si>
+    <t>Project overview link working</t>
+  </si>
+  <si>
+    <t>Project_sub_menus</t>
+  </si>
+  <si>
+    <t>Project management link working</t>
+  </si>
+  <si>
+    <t>Project finance link working</t>
+  </si>
+  <si>
+    <t>Project operation link working</t>
+  </si>
+  <si>
+    <t>Contract_Management_Page_Test</t>
+  </si>
+  <si>
+    <t>Contract management page working</t>
+  </si>
+  <si>
+    <t>Scenario</t>
+  </si>
+  <si>
+    <t>expectedOutput</t>
+  </si>
+  <si>
+    <t>Report_Subscribtion</t>
+  </si>
+  <si>
+    <t>Alert reports</t>
+  </si>
+  <si>
+    <t>All alert reports subscription create and update operations</t>
+  </si>
+  <si>
+    <t>Delete alert reports</t>
+  </si>
+  <si>
+    <t>All alert reports subscription delete operation</t>
+  </si>
+  <si>
+    <t>Record Deleted Successfully</t>
+  </si>
+  <si>
+    <t>Exception reports</t>
+  </si>
+  <si>
+    <t>All exception reports subscription crud operations</t>
+  </si>
+  <si>
+    <t>Inventory reports</t>
+  </si>
+  <si>
+    <t>All inventroy reports subscription crud operations</t>
+  </si>
+  <si>
+    <t>Project reports</t>
+  </si>
+  <si>
+    <t>All project reports subscription crud operations</t>
+  </si>
+  <si>
+    <t>SREC and Finance reports</t>
+  </si>
+  <si>
+    <t>All SREC and Finance reports subscription crud operations</t>
+  </si>
+  <si>
+    <t>EquipmentType</t>
+  </si>
+  <si>
+    <t>Manufacturer</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Quantity</t>
+  </si>
+  <si>
+    <t>PurchaseDate</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>Inventory Purchase</t>
+  </si>
+  <si>
+    <t>Create new purchase</t>
+  </si>
+  <si>
+    <t>Power System - Inverter</t>
+  </si>
+  <si>
+    <t>Advance Energy Inc.</t>
+  </si>
+  <si>
+    <t>AE 260TX</t>
+  </si>
+  <si>
+    <t>2/17/2015</t>
+  </si>
+  <si>
+    <t>ProjectOverviewPageTest</t>
+  </si>
+  <si>
+    <t>ContractManagementPageTest</t>
+  </si>
+  <si>
+    <t>SubscribeAlertReportTest</t>
+  </si>
+  <si>
+    <t>PurchaseNewInventoryTest</t>
+  </si>
+  <si>
+    <t>PlannedOutagePageTest</t>
+  </si>
+  <si>
+    <t>Planned_Outage_Page_test</t>
+  </si>
+  <si>
+    <t>ankur.tawar</t>
+  </si>
+  <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>Username</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>testType</t>
-  </si>
-  <si>
-    <t>ApplyNowTest</t>
-  </si>
-  <si>
-    <t>SignUpTest</t>
-  </si>
-  <si>
-    <t>OwnerInfoTest</t>
-  </si>
-  <si>
-    <t>Feature</t>
-  </si>
-  <si>
-    <t>Use_Case</t>
-  </si>
-  <si>
-    <t>Test_Case</t>
-  </si>
-  <si>
-    <t>Application</t>
-  </si>
-  <si>
-    <t>SrNo</t>
-  </si>
-  <si>
-    <t>Provider</t>
-  </si>
-  <si>
-    <t>AdditionalOwnerTest</t>
-  </si>
-  <si>
-    <t>Enter Wrong UserName and Right Password.</t>
-  </si>
-  <si>
-    <t>Enter Right UserName and Wrong Password.</t>
-  </si>
-  <si>
-    <t>Enter Wrong UserName and Wrong Password.</t>
-  </si>
-  <si>
-    <t>Enter Right UserName and Right Password.</t>
-  </si>
-  <si>
-    <t>sumit</t>
-  </si>
-  <si>
-    <t>Energy</t>
-  </si>
-  <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t>renewable</t>
-  </si>
-  <si>
-    <t>fdfdfdf</t>
-  </si>
-  <si>
-    <t>DashboardLinkTest</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> open</t>
-  </si>
-  <si>
-    <t>OperationalView_ProjectViewTest</t>
-  </si>
-  <si>
-    <t>OperationalView_ReportViewTest</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>Links are working or not</t>
-  </si>
-  <si>
-    <t>Clicked on Download Equipment Data.Component Data page will open.do not click on select component and click on View report.Should not go to next page.</t>
-  </si>
-  <si>
-    <t>Clicked on Download Equipment Data.Component Data page will open.clicking on select component then clicking on View Report.Should go to the next page.</t>
-  </si>
-  <si>
-    <t>Clicking on Download Equipment Data link, Component Data page should be open</t>
-  </si>
-  <si>
-    <t>Clicking on EquipmentLevelSummary link.Component Level Summary page should be open.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Clicked on Equipment Level Summary,Component Level Summary page will open.clicking on Download Equipment </t>
-  </si>
-  <si>
-    <t>OperationalView_ProjectView</t>
-  </si>
-  <si>
-    <t>OperationalView_ReportView</t>
-  </si>
-  <si>
-    <t>Login</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="dd/mm/yy"/>
+  </numFmts>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +292,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +314,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -202,16 +344,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -514,10 +677,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,62 +703,181 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25"/>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M2" s="5">
+        <v>5</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -605,7 +887,7 @@
   <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -620,28 +902,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -649,22 +931,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="b">
         <v>1</v>
@@ -675,25 +957,25 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H3" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -701,22 +983,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="H4" s="2" t="b">
         <v>1</v>
@@ -727,25 +1009,25 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H5" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -780,28 +1062,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -809,22 +1091,22 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="b">
         <v>1</v>
@@ -843,7 +1125,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -854,28 +1136,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -883,31 +1165,28 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>24</v>
+        <v>79</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2" s="2" t="b">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" display="19jan@aus111111c."/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -927,28 +1206,28 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -956,22 +1235,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F2" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -982,22 +1261,22 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H3" t="b">
         <v>1</v>
@@ -1008,22 +1287,22 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F4" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H4" t="b">
         <v>1</v>
@@ -1034,22 +1313,22 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H5" t="b">
         <v>1</v>
@@ -1060,22 +1339,22 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="H6" t="b">
         <v>1</v>
@@ -1084,4 +1363,557 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="I2" s="8">
+        <v>42036</v>
+      </c>
+      <c r="J2" s="8">
+        <v>42037</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" customFormat="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
+        <v>2</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="7">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="7">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="5" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J2" s="5"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="5" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="5" t="b">
+        <f>TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="I7" s="5" t="b">
+        <f>FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="J7" s="5"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G4" r:id="rId3"/>
+    <hyperlink ref="G5" r:id="rId4"/>
+    <hyperlink ref="G6" r:id="rId5"/>
+    <hyperlink ref="G7" r:id="rId6"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>